--- a/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>40,91%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60,1%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>49,09%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52,32%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>67,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>44,82%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>46,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63,69%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>46,91%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>35,01; 47,02</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54,2; 65,54</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>42,99; 55,9</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46,16; 59,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 72,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>40,14; 49,44</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41,66; 50,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59,49; 67,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>43,0; 50,73</t>
         </is>
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>52,79%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54,69%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>66,3%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60,6%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>73,99%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>70,27%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>48,18; 57,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>59,37; 68,06</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50,24; 59,19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>60,64; 71,24</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50,66; 59,56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59,51; 68,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56,11; 64,68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>70,41; 77,5</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,63; 57,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>60,6; 67,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54,22; 60,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>66,85; 73,03</t>
         </is>
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>50,84%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69,37%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50,63%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>70,29%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64,19%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>83,15%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>82,58%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>76,43%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54,68%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>76,86%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>44,7; 56,2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63,74; 73,84</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45,23; 56,01</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>64,91; 74,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58,93; 69,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78,1; 86,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>52,85; 63,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>78,35; 85,93</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53,6; 61,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72,99; 79,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50,65; 58,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>73,58; 79,9</t>
         </is>
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>47,81%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61,15%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>72,78%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>86,89%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>58,33%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>72,11%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>77,35%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>87,38%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53,16%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>66,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>87,17%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>42,5; 52,67</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 64,61</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67,38; 76,7</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>81,35; 90,79</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>52,71; 63,17</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68,81; 75,79</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72,23; 80,91</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>83,51; 90,56</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49,5; 56,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63,84; 69,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>71,62; 78,24</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>84,12; 89,84</t>
         </is>
@@ -756,15 +1216,60 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>60,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>93,84%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54,42%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>96,91%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>64,89%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63,24%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>95,5%</t>
         </is>
@@ -779,15 +1284,60 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>34,91; 48,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50,66; 64,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53,38; 67,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>89,53; 96,62</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47,5; 61,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64,85; 77,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59,05; 71,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>93,87; 98,42</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42,96; 53,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>60,18; 69,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>58,3; 67,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>93,14; 97,22</t>
         </is>
@@ -806,15 +1356,60 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>54,5%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73,89%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36,83%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>72,18%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57,08%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80,2%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>76,74%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55,81%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77,07%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>74,45%</t>
         </is>
@@ -829,15 +1424,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>47,96; 59,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>68,3; 78,81</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30,78; 42,76</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>66,55; 77,44</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 62,68</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>74,29; 84,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>37,3; 49,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>71,66; 81,45</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51,46; 59,65</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>73,56; 80,78</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35,5; 43,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>70,91; 77,84</t>
         </is>
@@ -856,15 +1496,60 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>43,42%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>58,14%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47,51%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>73,81%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>53,98%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68,66%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>52,58%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>63,88%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>48,79%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>63,52%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>50,12%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>68,23%</t>
         </is>
@@ -879,15 +1564,60 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>39,28; 47,3</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54,09; 61,94</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43,35; 51,6</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>69,64; 78,05</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>49,79; 57,99</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>64,7; 72,41</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>48,67; 56,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>39,87; 75,28</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>45,99; 51,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>60,64; 65,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47,23; 52,92</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>49,57; 74,84</t>
         </is>
@@ -906,15 +1636,60 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>48,44%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>55,25%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>87,66%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>54,29%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>54,98%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>56,46%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>89,79%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50,66%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>51,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>55,87%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>88,73%</t>
         </is>
@@ -929,15 +1704,60 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>43,23; 50,53</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44,64; 52,14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>51,46; 59,05</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>84,85; 90,39</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>50,61; 58,16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>51,45; 58,43</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>52,96; 60,29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>87,89; 91,69</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>47,96; 53,24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>49,23; 54,41</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>53,39; 58,34</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>87,01; 90,45</t>
         </is>
@@ -956,15 +1776,60 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>76,22%</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>55,83%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>67,92%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>59,24%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>77,32%</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>63,89%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>76,8%</t>
         </is>
@@ -979,15 +1844,60 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>45,5; 48,96</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>57,97; 61,53</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52,64; 56,14</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>74,28; 77,95</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>54,02; 57,45</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>66,28; 69,5</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>57,46; 60,9</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>70,15; 80,07</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 52,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>62,56; 65,01</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>55,61; 58,08</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t>72,65; 78,48</t>
         </is>
@@ -1001,15 +1911,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,01; 47,02</t>
+          <t>34,42; 46,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,2; 65,54</t>
+          <t>54,14; 65,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 55,9</t>
+          <t>42,47; 55,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,16; 59,37</t>
+          <t>45,71; 58,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,06; 72,19</t>
+          <t>61,69; 72,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,14; 49,44</t>
+          <t>40,63; 50,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,66; 50,59</t>
+          <t>42,16; 50,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,49; 67,46</t>
+          <t>59,14; 67,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,0; 50,73</t>
+          <t>43,0; 50,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,18; 57,25</t>
+          <t>48,27; 57,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,37; 68,06</t>
+          <t>59,26; 68,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,24; 59,19</t>
+          <t>50,07; 59,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,64; 71,24</t>
+          <t>61,33; 71,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,66; 59,56</t>
+          <t>50,2; 59,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,51; 68,41</t>
+          <t>59,88; 68,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,11; 64,68</t>
+          <t>56,25; 65,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,41; 77,5</t>
+          <t>70,48; 77,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,63; 57,36</t>
+          <t>50,53; 57,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,6; 67,05</t>
+          <t>60,82; 66,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,22; 60,72</t>
+          <t>54,63; 61,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,85; 73,03</t>
+          <t>66,97; 73,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,7; 56,2</t>
+          <t>44,87; 56,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>63,74; 73,84</t>
+          <t>64,58; 74,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,23; 56,01</t>
+          <t>45,38; 56,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64,91; 74,92</t>
+          <t>64,36; 75,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 69,0</t>
+          <t>58,84; 68,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,1; 86,94</t>
+          <t>78,65; 87,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,85; 63,54</t>
+          <t>53,3; 63,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,35; 85,93</t>
+          <t>79,13; 86,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,6; 61,58</t>
+          <t>53,83; 61,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,99; 79,41</t>
+          <t>73,01; 79,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,65; 58,24</t>
+          <t>50,76; 58,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,58; 79,9</t>
+          <t>73,8; 79,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,5; 52,67</t>
+          <t>42,54; 53,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,15; 64,61</t>
+          <t>57,36; 64,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,38; 76,7</t>
+          <t>67,84; 77,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,35; 90,79</t>
+          <t>80,91; 90,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,71; 63,17</t>
+          <t>53,64; 63,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,81; 75,79</t>
+          <t>68,68; 75,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,23; 80,91</t>
+          <t>72,54; 81,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,51; 90,56</t>
+          <t>83,48; 90,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,5; 56,97</t>
+          <t>49,68; 56,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,84; 69,04</t>
+          <t>64,08; 69,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 78,24</t>
+          <t>72,1; 78,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,12; 89,84</t>
+          <t>84,37; 89,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,91; 48,85</t>
+          <t>35,1; 48,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,66; 64,8</t>
+          <t>50,99; 65,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,38; 67,07</t>
+          <t>54,3; 66,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,53; 96,62</t>
+          <t>89,59; 96,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,5; 61,51</t>
+          <t>47,26; 61,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,85; 77,1</t>
+          <t>64,9; 77,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,05; 71,6</t>
+          <t>59,5; 71,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,87; 98,42</t>
+          <t>93,54; 98,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,96; 53,2</t>
+          <t>42,93; 53,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,18; 69,08</t>
+          <t>59,65; 69,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,3; 67,53</t>
+          <t>58,63; 67,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,14; 97,22</t>
+          <t>92,99; 97,09</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,96; 59,96</t>
+          <t>48,25; 60,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,3; 78,81</t>
+          <t>68,29; 79,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,78; 42,76</t>
+          <t>30,97; 43,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,55; 77,44</t>
+          <t>66,72; 77,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,16; 62,68</t>
+          <t>51,08; 63,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>74,29; 84,43</t>
+          <t>75,18; 85,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,3; 49,34</t>
+          <t>37,16; 49,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,66; 81,45</t>
+          <t>71,63; 81,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,46; 59,65</t>
+          <t>51,43; 60,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73,56; 80,78</t>
+          <t>73,22; 80,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,5; 43,82</t>
+          <t>35,92; 44,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>70,91; 77,84</t>
+          <t>70,4; 77,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,28; 47,3</t>
+          <t>39,3; 47,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>54,09; 61,94</t>
+          <t>54,37; 62,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,35; 51,6</t>
+          <t>43,2; 51,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,64; 78,05</t>
+          <t>69,75; 77,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,79; 57,99</t>
+          <t>50,01; 57,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,7; 72,41</t>
+          <t>65,1; 72,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,67; 56,52</t>
+          <t>48,86; 56,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,87; 75,28</t>
+          <t>38,42; 75,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45,99; 51,65</t>
+          <t>46,15; 51,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,64; 65,98</t>
+          <t>60,95; 66,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,23; 52,92</t>
+          <t>47,1; 52,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,57; 74,84</t>
+          <t>50,46; 74,99</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,23; 50,53</t>
+          <t>43,03; 50,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,64; 52,14</t>
+          <t>44,86; 52,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,46; 59,05</t>
+          <t>51,29; 58,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>84,85; 90,39</t>
+          <t>85,0; 90,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,61; 58,16</t>
+          <t>50,48; 58,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,45; 58,43</t>
+          <t>51,5; 58,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>52,96; 60,29</t>
+          <t>52,94; 60,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>87,89; 91,69</t>
+          <t>87,54; 91,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>47,96; 53,24</t>
+          <t>48,03; 53,12</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,23; 54,41</t>
+          <t>49,36; 54,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>53,39; 58,34</t>
+          <t>53,06; 58,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>87,01; 90,45</t>
+          <t>87,03; 90,44</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>45,5; 48,96</t>
+          <t>45,8; 49,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,53</t>
+          <t>57,97; 61,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,64; 56,14</t>
+          <t>52,76; 56,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>74,28; 77,95</t>
+          <t>74,44; 77,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,02; 57,45</t>
+          <t>54,05; 57,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>66,28; 69,5</t>
+          <t>66,33; 69,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>57,46; 60,9</t>
+          <t>57,61; 60,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>70,15; 80,07</t>
+          <t>68,99; 80,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>50,4; 52,88</t>
+          <t>50,55; 52,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62,56; 65,01</t>
+          <t>62,69; 65,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,61; 58,08</t>
+          <t>55,62; 58,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>72,65; 78,48</t>
+          <t>72,71; 78,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>46,93%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,24; 68,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,47; 55,5</t>
+          <t>41,66; 56,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,87; 72,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,63; 50,11</t>
+          <t>40,19; 50,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,57; 68,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,0; 50,87</t>
+          <t>42,53; 51,32</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,3%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,99%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,27%</t>
+          <t>70,28%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,33; 71,11</t>
+          <t>61,44; 71,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,48; 77,38</t>
+          <t>70,5; 77,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,97; 73,11</t>
+          <t>66,9; 73,24</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>70,29%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>76,86%</t>
+          <t>76,51%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64,36; 75,35</t>
+          <t>63,98; 75,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,13; 86,22</t>
+          <t>79,03; 86,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,8; 79,92</t>
+          <t>73,4; 79,71</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>59,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,11%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>89,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>88,39%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,36; 64,98</t>
+          <t>53,39; 64,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,91; 90,82</t>
+          <t>80,62; 90,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,68; 75,6</t>
+          <t>71,36; 80,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,48; 90,45</t>
+          <t>85,35; 94,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,08; 69,22</t>
+          <t>64,35; 71,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,37; 89,89</t>
+          <t>85,33; 91,79</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,59; 96,47</t>
+          <t>89,66; 96,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,54; 98,46</t>
+          <t>94,23; 98,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>92,99; 97,09</t>
+          <t>93,29; 97,16</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>76,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>74,21%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,72; 77,08</t>
+          <t>66,36; 76,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,63; 81,19</t>
+          <t>71,51; 81,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>70,4; 77,56</t>
+          <t>70,23; 77,45</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>63,88%</t>
+          <t>56,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>68,23%</t>
+          <t>63,29%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,75; 77,42</t>
+          <t>68,29; 76,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,42; 75,32</t>
+          <t>26,15; 75,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,46; 74,99</t>
+          <t>38,86; 74,55</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>90,1%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>85,0; 90,67</t>
+          <t>86,17; 96,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>87,54; 91,56</t>
+          <t>87,52; 91,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>87,03; 90,44</t>
+          <t>87,71; 93,91</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>76,22%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>75,7%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>74,44; 77,95</t>
+          <t>73,96; 81,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68,99; 80,1</t>
+          <t>60,58; 79,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>72,71; 78,46</t>
+          <t>68,8; 78,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,42; 46,81</t>
+          <t>35,53; 47,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,24; 68,73</t>
+          <t>57,19; 68,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54,14; 65,65</t>
+          <t>54,1; 65,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,66; 56,19</t>
+          <t>42,18; 56,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,71; 58,42</t>
+          <t>46,13; 58,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,87; 72,78</t>
+          <t>60,75; 72,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,69; 72,76</t>
+          <t>61,16; 72,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,19; 50,15</t>
+          <t>39,68; 49,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,16; 50,8</t>
+          <t>41,9; 50,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60,57; 68,83</t>
+          <t>60,87; 69,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,14; 67,69</t>
+          <t>59,51; 67,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,53; 51,32</t>
+          <t>42,6; 51,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,27; 57,48</t>
+          <t>47,78; 57,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,26; 68,18</t>
+          <t>59,32; 68,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,07; 59,27</t>
+          <t>50,18; 58,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,44; 71,55</t>
+          <t>60,38; 71,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,2; 59,04</t>
+          <t>50,63; 59,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,88; 68,09</t>
+          <t>59,05; 68,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,25; 65,21</t>
+          <t>56,18; 64,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,5; 77,39</t>
+          <t>70,31; 77,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,53; 57,11</t>
+          <t>50,87; 57,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,82; 66,95</t>
+          <t>60,84; 67,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,63; 61,08</t>
+          <t>54,41; 60,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,9; 73,24</t>
+          <t>66,96; 73,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,87; 56,35</t>
+          <t>45,3; 56,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,58; 74,43</t>
+          <t>64,16; 74,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,38; 56,47</t>
+          <t>44,49; 55,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>63,98; 75,25</t>
+          <t>64,05; 74,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,84; 68,87</t>
+          <t>58,96; 68,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,65; 87,15</t>
+          <t>78,89; 87,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,3; 63,91</t>
+          <t>53,64; 64,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,03; 86,16</t>
+          <t>78,54; 86,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,83; 61,57</t>
+          <t>53,8; 61,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>73,01; 79,55</t>
+          <t>72,71; 79,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,76; 58,6</t>
+          <t>51,07; 58,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>73,4; 79,71</t>
+          <t>73,21; 79,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,54; 53,04</t>
+          <t>42,41; 52,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,39; 64,79</t>
+          <t>54,54; 64,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,84; 77,51</t>
+          <t>67,36; 77,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,62; 90,89</t>
+          <t>80,51; 90,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,64; 63,78</t>
+          <t>53,36; 63,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,36; 80,2</t>
+          <t>71,31; 80,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,54; 81,65</t>
+          <t>72,4; 81,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,35; 94,14</t>
+          <t>85,46; 93,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,68; 56,91</t>
+          <t>49,63; 56,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,35; 71,58</t>
+          <t>64,43; 71,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,1; 78,52</t>
+          <t>71,83; 78,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,33; 91,79</t>
+          <t>85,15; 91,6</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,1; 48,29</t>
+          <t>35,03; 48,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,99; 65,38</t>
+          <t>51,53; 65,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,3; 66,4</t>
+          <t>53,85; 66,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,66; 96,47</t>
+          <t>89,57; 96,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,26; 61,55</t>
+          <t>47,54; 61,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,9; 77,39</t>
+          <t>65,23; 77,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,5; 71,58</t>
+          <t>59,41; 72,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,23; 98,49</t>
+          <t>94,33; 98,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,93; 53,01</t>
+          <t>43,42; 53,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59,65; 69,26</t>
+          <t>60,1; 69,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,63; 67,45</t>
+          <t>58,93; 68,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,29; 97,16</t>
+          <t>93,19; 97,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,25; 60,09</t>
+          <t>48,07; 60,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,29; 79,1</t>
+          <t>67,9; 78,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,97; 43,18</t>
+          <t>30,99; 42,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,36; 76,85</t>
+          <t>66,21; 76,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,08; 63,59</t>
+          <t>50,83; 62,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,18; 85,25</t>
+          <t>74,49; 85,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,16; 49,34</t>
+          <t>37,32; 49,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>71,51; 81,14</t>
+          <t>71,69; 81,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,43; 60,27</t>
+          <t>51,82; 59,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>73,22; 80,56</t>
+          <t>73,29; 81,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>35,92; 44,27</t>
+          <t>36,1; 44,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>70,23; 77,45</t>
+          <t>70,07; 77,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,3; 47,69</t>
+          <t>39,23; 47,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>54,37; 62,26</t>
+          <t>54,08; 62,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,2; 51,92</t>
+          <t>43,47; 51,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68,29; 76,93</t>
+          <t>67,5; 77,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,01; 57,79</t>
+          <t>50,06; 57,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,1; 72,16</t>
+          <t>64,69; 72,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,86; 56,15</t>
+          <t>48,63; 56,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,15; 75,29</t>
+          <t>32,0; 75,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,15; 51,77</t>
+          <t>46,11; 51,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,95; 66,21</t>
+          <t>60,71; 66,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,1; 52,69</t>
+          <t>47,19; 53,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>38,86; 74,55</t>
+          <t>38,07; 74,61</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,03; 50,79</t>
+          <t>43,16; 50,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,86; 52,49</t>
+          <t>44,79; 52,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,29; 58,69</t>
+          <t>51,75; 58,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,17; 96,14</t>
+          <t>85,99; 96,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>50,48; 58,01</t>
+          <t>50,46; 57,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,5; 58,6</t>
+          <t>51,3; 58,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>52,94; 60,02</t>
+          <t>52,87; 60,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>87,52; 91,53</t>
+          <t>87,75; 91,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,03; 53,12</t>
+          <t>47,83; 53,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,36; 54,24</t>
+          <t>49,1; 54,38</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>53,06; 58,29</t>
+          <t>53,42; 58,59</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>87,71; 93,91</t>
+          <t>87,83; 93,78</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>45,8; 49,27</t>
+          <t>45,44; 49,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,52</t>
+          <t>57,88; 61,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,76; 56,16</t>
+          <t>52,87; 56,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>73,96; 81,58</t>
+          <t>73,84; 81,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>54,05; 57,36</t>
+          <t>54,08; 57,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>66,33; 69,45</t>
+          <t>66,3; 69,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>57,61; 60,95</t>
+          <t>57,74; 60,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>60,58; 79,98</t>
+          <t>60,78; 79,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>50,55; 52,86</t>
+          <t>50,38; 52,89</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62,69; 65,03</t>
+          <t>62,72; 65,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,62; 58,07</t>
+          <t>55,68; 58,12</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>68,8; 78,7</t>
+          <t>68,49; 78,59</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume frutas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>111681</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>185814</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>175324</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>152990</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>136461</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>190787</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>194337</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>129077</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>248143</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>376602</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>369661</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>282067</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97001; 128400</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>168572; 202555</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>157824; 191952</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>131358; 174478</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>120322; 152461</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>173146; 206026</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>176560; 210055</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114929; 142019</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>223672; 270621</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>352899; 402836</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>345406; 393104</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>256046; 307801</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>259227</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>322892</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>274839</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>345121</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>276598</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>335258</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>316987</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>381160</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>535825</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>658150</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>591826</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>726281</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>234632; 281382</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>299243; 345650</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>252190; 296428</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>312986; 372086</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>255161; 298803</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>309300; 356192</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>293870; 339055</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>362093; 399138</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>506218; 570179</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>625545; 689646</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>558040; 624996</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>691976; 759387</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>162089</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>224803</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>161303</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>221176</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>215315</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>282723</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>196755</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>285410</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>377404</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>507525</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>358058</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>506587</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>144428; 179622</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>207908; 240673</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>141735; 176617</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>202431; 236713</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>197766; 231364</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>268251; 295901</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>180409; 215771</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>271779; 298454</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>352004; 402430</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>482879; 528024</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>334412; 381867</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>484681; 526541</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>171491</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>223100</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>269267</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>271257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>216673</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>295194</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>299554</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>425468</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>388164</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>518294</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>568821</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>696725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>152122; 190069</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>203959; 242886</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>249214; 285680</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>251632; 283882</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>198216; 235192</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>277363; 312388</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>280388; 314735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>406537; 445895</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>362382; 414203</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>491582; 547365</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>543951; 592460</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>671203; 722085</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84643</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>123587</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>128185</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>167857</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>113008</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>156862</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>143643</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>202177</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>197651</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>280450</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>271828</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>370035</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>71218; 98931</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>109552; 138452</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>113746; 141011</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>160098; 172688</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98728; 127792</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>143250; 169684</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>129852; 157908</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>196463; 205023</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>178445; 218401</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>259741; 300878</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>253291; 293419</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>360674; 376120</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>147598</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>201723</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>96914</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>193758</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>158777</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>223701</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>117764</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>197084</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>306375</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>425424</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>214678</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>390842</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>130192; 163397</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>185378; 215588</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>81539; 111516</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>178534; 207467</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>141377; 174549</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>207774; 237680</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>101539; 133685</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>184275; 208964</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>284470; 327318</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>404562; 447603</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>193194; 238893</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>369077; 407314</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>267016</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>383594</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>310163</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>454408</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>344010</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>474290</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>362909</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>477442</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>611026</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>857884</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>673072</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>931850</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>241302; 294036</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>356755; 410281</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>283762; 339395</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>420585; 481778</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>318992; 368780</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>446916; 498199</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>335626; 387812</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>271780; 637162</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>577375; 650228</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>819880; 894873</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>633712; 712812</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>560453; 1098581</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>347914</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>377425</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>429624</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>839116</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>424768</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>452985</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>464364</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>644281</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>772682</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>830410</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>893988</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1483398</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>320632; 374728</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>348971; 408966</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>402435; 457566</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>798624; 891754</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>394792; 452587</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>422598; 482784</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>434843; 493472</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>629804; 658612</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>729528; 810386</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>787077; 871670</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>854771; 937433</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1446038; 1544101</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2244</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4144</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3706</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6938</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1551659</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2042940</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1845619</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2645683</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1885611</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2411801</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2096313</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2742099</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3437270</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4454740</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3941932</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>5387783</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1487611; 1606903</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1980512; 2099905</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1790896; 1905519</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2553818; 2809474</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1826413; 1944171</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2354136; 2471592</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2043265; 2157069</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2223756; 2925491</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3350941; 3517571</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4373026; 4536435</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3856856; 4025210</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>4874598; 5593685</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>